--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -8,14 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filiperecharte/Documents/Tese/code/libraryCRDTs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A7CA5-4C32-3846-9F53-1946BF04A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BC471E-F5A8-8C46-9FF3-8AF2A764536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{96CE5EDD-0698-D046-A3B3-759BE4354C83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$61:$A$64</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$60</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$60</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$61:$C$64</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$60</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$61:$D$64</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$61:$A$64</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$60</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$61:$B$64</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$60</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$61:$C$64</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$D$60</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$61:$B$64</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$61:$D$64</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$61:$A$64</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$60</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$61:$B$64</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$60</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$61:$C$64</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$60</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$D$61:$D$64</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$61:$A$64</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$60</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$60</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$61:$B$64</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$60</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$C$61:$C$64</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$D$60</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$D$61:$D$64</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$A$61:$A$64</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$60</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$61:$B$64</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$60</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$61:$C$64</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$61:$C$64</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$D$60</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$D$61:$D$64</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$A$61:$A$64</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$B$60</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$61:$B$64</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$C$60</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$C$61:$C$64</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$D$60</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$D$61:$D$64</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$A$61:$A$64</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$60</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$B$60</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$B$61:$B$64</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$C$60</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$C$61:$C$64</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$D$60</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$D$61:$D$64</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$61:$D$64</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$61:$A$64</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$60</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$61:$B$64</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="30">
   <si>
     <t>Add-wins base</t>
   </si>
@@ -45,9 +103,6 @@
   </si>
   <si>
     <t>stabilize</t>
-  </si>
-  <si>
-    <t>nr</t>
   </si>
   <si>
     <t>replica</t>
@@ -71,17 +126,71 @@
     <t>RGA ECRO</t>
   </si>
   <si>
-    <t>mem usage(MB)</t>
+    <t>RGA SemidirectECRO</t>
   </si>
   <si>
-    <t>RGA SemidirectECRO</t>
+    <t>500 ops</t>
+  </si>
+  <si>
+    <t>1000 ops</t>
+  </si>
+  <si>
+    <t>1500 ops</t>
+  </si>
+  <si>
+    <t>2000 ops</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>ECRO</t>
+  </si>
+  <si>
+    <t>SemiECRO</t>
+  </si>
+  <si>
+    <t>cpu time (ms)</t>
+  </si>
+  <si>
+    <t>mem usage</t>
+  </si>
+  <si>
+    <t>Classic-mem</t>
+  </si>
+  <si>
+    <t>ECRO-mem</t>
+  </si>
+  <si>
+    <t>SemiECRO-mem</t>
+  </si>
+  <si>
+    <t>5 replicas</t>
+  </si>
+  <si>
+    <t>2 replicas</t>
+  </si>
+  <si>
+    <t>50 replicas</t>
+  </si>
+  <si>
+    <t>1 replica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5 reps</t>
+  </si>
+  <si>
+    <t>50 reps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,8 +198,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +231,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -128,13 +250,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,6 +277,1673 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0131499250852759E-2"/>
+          <c:y val="7.2268903030956747E-2"/>
+          <c:w val="0.79639516720328984"/>
+          <c:h val="0.70946338043361024"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$61:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0767-6141-8DD3-617429D283BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ECRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$61:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.846666666666998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0767-6141-8DD3-617429D283BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SemiECRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$61:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$61:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0767-6141-8DD3-617429D283BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2026399888"/>
+        <c:axId val="1884250528"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classic-mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.271486666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.229385000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0767-6141-8DD3-617429D283BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ECRO-mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln cap="sq">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-0767-6141-8DD3-617429D283BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$67:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>563.38523999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1729.69994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2334.2251666666998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748.7520599999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0767-6141-8DD3-617429D283BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SemiECRO-mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$67:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.651440000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>528.79869999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>751.99541333333343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1026.69694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0767-6141-8DD3-617429D283BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2101220576"/>
+        <c:axId val="2101183936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2026399888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of operations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884250528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1884250528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026399888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2101183936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Memory Allocated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (kB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101220576"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2101220576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101183936"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11028618811784582"/>
+          <c:y val="6.6396505485405877E-2"/>
+          <c:w val="0.74249451594606453"/>
+          <c:h val="0.71143337307209775"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$96:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FEFC-CF44-8C87-BE7B947ECAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ECRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$96:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>470.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2116.2510000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4281.1530000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7682.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FEFC-CF44-8C87-BE7B947ECAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SemiECRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$96:$D$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>166.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>784.79333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1001.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FEFC-CF44-8C87-BE7B947ECAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="782730495"/>
+        <c:axId val="782924767"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classic-mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>108.05200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190.69595999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265.6848133333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352.31081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FEFC-CF44-8C87-BE7B947ECAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ECRO-mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$102:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30747.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140709.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233692.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389677.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FEFC-CF44-8C87-BE7B947ECAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SemiECRO-mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$102:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18807.54636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30926.84088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44091.028680000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53043.904475000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FEFC-CF44-8C87-BE7B947ECAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="783185023"/>
+        <c:axId val="782664639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="782730495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782924767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="782924767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU time (ms/op)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782730495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="782664639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Memory Allocated (kB/op)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="783185023"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="783185023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="782664639"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7609A178-010C-7A44-31B8-C402D523DB82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>307415</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>84419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>164354</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D973FDE7-8123-E11A-1057-FB098A73CD58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,41 +2243,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE648EDC-72EE-924F-A736-F5D7EAD4071F}">
-  <dimension ref="A2:N10"/>
+  <dimension ref="A2:O158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -492,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
@@ -502,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="1" t="s">
@@ -512,162 +2307,1903 @@
         <v>2</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>272.93</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>0.08</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>47772762.880000003</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>17806.810000000001</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
         <v>0.24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>22.38</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>62.7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>724.41</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>48550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>271.27</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0.21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>7943.02</v>
-      </c>
-      <c r="H4">
-        <v>102.31</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="B19">
+        <v>153.68</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="K19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>86385.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>811829909.51999998</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="K34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1" t="s">
+      <c r="B36">
+        <f>(0.14/O35)*1000</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f>(2.19/O35)*1000</f>
+        <v>4.38</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <f>(0.42/O35)*1000</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <f>12440/O35</f>
+        <v>24.88</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f>531692.62/O35</f>
+        <v>1063.3852400000001</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <f>5825.72/O35</f>
+        <v>11.651440000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1" t="s">
+      <c r="B43">
+        <f>(0.04/O42)*1000</f>
+        <v>0.04</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <f>(72.1/O42)*1000</f>
+        <v>72.099999999999994</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <f>(5.86/O42)*1000</f>
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <f>17870/O42</f>
+        <v>17.87</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <f>17290699.94/O42</f>
+        <v>17290.699940000002</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <f>528798.7/O42</f>
+        <v>528.79869999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B50">
+        <f>(0.65/O49)*1000</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <f>(170.77/O49)*1000</f>
+        <v>113.84666666666668</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <f>(11.65/O49)*1000</f>
+        <v>7.7666666666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="B51">
+        <f>40907.23/O49</f>
+        <v>27.271486666666668</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9">
-        <v>603.48</v>
-      </c>
-      <c r="H9">
-        <v>29.29</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="G51">
+        <f>35020837.75/O49</f>
+        <v>23347.225166666667</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>44.68</v>
-      </c>
-      <c r="M9">
+      <c r="L51">
+        <f>1127993.12/O49</f>
+        <v>751.99541333333343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="K55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <f>(0.91/O56)*1000</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <f>(541.49/O56)*1000</f>
+        <v>270.745</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <f>(25.14/O56)*1000</f>
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <f>70458.77/O56</f>
+        <v>35.229385000000001</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <f>74971504.12/O56</f>
+        <v>37485.752059999999</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <f>2053393.88/O56</f>
+        <v>1026.69694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>500</v>
+      </c>
+      <c r="B61">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C61">
+        <v>2.38</v>
+      </c>
+      <c r="D61">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1000</v>
+      </c>
+      <c r="B62">
+        <v>0.04</v>
+      </c>
+      <c r="C62">
+        <v>37.1</v>
+      </c>
+      <c r="D62">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1500</v>
+      </c>
+      <c r="B63">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C63">
+        <v>54.846666666666998</v>
+      </c>
+      <c r="D63">
+        <v>7.7666666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2000</v>
+      </c>
+      <c r="B64">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C64">
+        <v>112.745</v>
+      </c>
+      <c r="D64">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>500</v>
+      </c>
+      <c r="B67">
+        <v>24.88</v>
+      </c>
+      <c r="C67">
+        <v>563.38523999999995</v>
+      </c>
+      <c r="D67">
+        <v>11.651440000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1000</v>
+      </c>
+      <c r="B68">
+        <v>17.87</v>
+      </c>
+      <c r="C68">
+        <v>1729.69994</v>
+      </c>
+      <c r="D68">
+        <v>528.79869999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1500</v>
+      </c>
+      <c r="B69">
+        <v>27.271486666666668</v>
+      </c>
+      <c r="C69">
+        <v>2334.2251666666998</v>
+      </c>
+      <c r="D69">
+        <v>751.99541333333343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2000</v>
+      </c>
+      <c r="B70">
+        <v>35.229385000000001</v>
+      </c>
+      <c r="C70">
+        <v>3748.7520599999998</v>
+      </c>
+      <c r="D70">
+        <v>1026.69694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>500</v>
+      </c>
+      <c r="B78">
+        <v>0.06</v>
+      </c>
+      <c r="C78">
+        <v>3.8</v>
+      </c>
+      <c r="D78">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79">
+        <v>0.23</v>
+      </c>
+      <c r="C79">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="D79">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1500</v>
+      </c>
+      <c r="B80">
+        <v>0.19</v>
+      </c>
+      <c r="C80">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="D80">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2000</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B79:D81" ca="1" si="0">B81/A81</f>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>500</v>
+      </c>
+      <c r="B84">
+        <v>1507.28</v>
+      </c>
+      <c r="C84">
+        <v>444621.38</v>
+      </c>
+      <c r="D84">
+        <v>29344.57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1000</v>
+      </c>
+      <c r="B85">
+        <v>6169.23</v>
+      </c>
+      <c r="C85">
+        <v>837886.02</v>
+      </c>
+      <c r="D85">
+        <v>73891.570000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1500</v>
+      </c>
+      <c r="B86">
+        <v>12130.2</v>
+      </c>
+      <c r="C86">
+        <v>7514869.9500000002</v>
+      </c>
+      <c r="D86">
+        <v>98778.47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2000</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ref="B87:D87" ca="1" si="1">B87/A87</f>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>500</v>
+      </c>
+      <c r="B96">
+        <f>(0.37/A96)*1000</f>
+        <v>0.74</v>
+      </c>
+      <c r="C96">
+        <v>470.45</v>
+      </c>
+      <c r="D96">
+        <f>(83.02/500)*1000</f>
+        <v>166.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1000</v>
+      </c>
+      <c r="B97">
+        <f>(1.06/1000)*1000</f>
+        <v>1.06</v>
+      </c>
+      <c r="C97">
+        <v>2116.2510000000002</v>
+      </c>
+      <c r="D97">
+        <v>350.85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1500</v>
+      </c>
+      <c r="B98">
+        <f>(1.48/A98)*1000</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="C98">
+        <v>4281.1530000000002</v>
+      </c>
+      <c r="D98">
+        <f>(1177.19/A98)*1000</f>
+        <v>784.79333333333329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2000</v>
+      </c>
+      <c r="B99">
+        <f>(3.3/A99)*1000</f>
+        <v>1.65</v>
+      </c>
+      <c r="C99">
+        <v>7682.29</v>
+      </c>
+      <c r="D99">
+        <f>(2002.88/A99)*1000</f>
+        <v>1001.44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>500</v>
+      </c>
+      <c r="B102">
+        <f>54026/500</f>
+        <v>108.05200000000001</v>
+      </c>
+      <c r="C102">
+        <v>30747.02</v>
+      </c>
+      <c r="D102">
+        <f>9403773.18/500</f>
+        <v>18807.54636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1000</v>
+      </c>
+      <c r="B103">
+        <f>190695.96/1000</f>
+        <v>190.69595999999999</v>
+      </c>
+      <c r="C103">
+        <v>140709.6</v>
+      </c>
+      <c r="D103">
+        <f>30926840.88/1000</f>
+        <v>30926.84088</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1500</v>
+      </c>
+      <c r="B104">
+        <f>398527.22/1500</f>
+        <v>265.6848133333333</v>
+      </c>
+      <c r="C104">
+        <v>233692.6</v>
+      </c>
+      <c r="D104">
+        <f>66136543.02/1500</f>
+        <v>44091.028680000003</v>
+      </c>
+      <c r="F104">
+        <v>101314.68700000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2000</v>
+      </c>
+      <c r="B105">
+        <f>704621.62/2000</f>
+        <v>352.31081</v>
+      </c>
+      <c r="C105">
+        <v>389677.84</v>
+      </c>
+      <c r="D105">
+        <f>106087808.95/2000</f>
+        <v>53043.904475000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>500</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ref="C113:D113" ca="1" si="2">C113/B113</f>
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>500</v>
+      </c>
+      <c r="I113">
+        <f>54026/500</f>
+        <v>108.05200000000001</v>
+      </c>
+      <c r="J113">
+        <v>403747.02</v>
+      </c>
+      <c r="K113">
+        <f>9403773.18/500</f>
+        <v>18807.54636</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1000</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ref="B114:D114" ca="1" si="3">B114/A114</f>
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1000</v>
+      </c>
+      <c r="I114">
+        <f>190695.96/1000</f>
+        <v>190.69595999999999</v>
+      </c>
+      <c r="J114">
+        <v>704709.6</v>
+      </c>
+      <c r="K114">
+        <f>30926840.88/1000</f>
+        <v>30926.84088</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1500</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ref="B115:D115" ca="1" si="4">B115/A115</f>
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1500</v>
+      </c>
+      <c r="I115">
+        <f>398527.22/1500</f>
+        <v>265.6848133333333</v>
+      </c>
+      <c r="J115">
+        <v>1001692.6</v>
+      </c>
+      <c r="K115">
+        <f>66136543.02/1500</f>
+        <v>44091.028680000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2000</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ref="B116:D116" ca="1" si="5">B116/A116</f>
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>2000</v>
+      </c>
+      <c r="I116">
+        <f>704621.62/2000</f>
+        <v>352.31081</v>
+      </c>
+      <c r="J116">
+        <v>1903677.84</v>
+      </c>
+      <c r="K116">
+        <f>106087808.95/2000</f>
+        <v>53043.904475000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>500</v>
+      </c>
+      <c r="B119">
+        <f ca="1">B119/A119</f>
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ref="C119:D119" ca="1" si="6">C119/B119</f>
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1000</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ref="B120:D120" ca="1" si="7">B120/A120</f>
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1500</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ref="B121:D121" ca="1" si="8">B121/A121</f>
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2000</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ref="B122:D122" ca="1" si="9">B122/A122</f>
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>500</v>
+      </c>
+      <c r="B130">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>379882.21</v>
-      </c>
-      <c r="H10">
-        <v>18159.91</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>9117.61</v>
-      </c>
-      <c r="M10">
-        <v>1.78</v>
+      <c r="C130">
+        <f>(232.89/A130)*1000</f>
+        <v>465.78</v>
+      </c>
+      <c r="D130">
+        <f>(0.4/A130)*1000</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1000</v>
+      </c>
+      <c r="B131">
+        <v>0.01</v>
+      </c>
+      <c r="C131">
+        <f>(502.62/A131)*1000</f>
+        <v>502.61999999999995</v>
+      </c>
+      <c r="D131">
+        <f>(1.04/A131)*1000</f>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1500</v>
+      </c>
+      <c r="B132">
+        <v>0.01</v>
+      </c>
+      <c r="C132">
+        <f>(756.33/A132)*1000</f>
+        <v>504.22</v>
+      </c>
+      <c r="D132">
+        <f>(1.72/A132)*1000</f>
+        <v>1.1466666666666667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2000</v>
+      </c>
+      <c r="B133">
+        <v>0.01</v>
+      </c>
+      <c r="C133">
+        <f>(1001.02/A133)*1000</f>
+        <v>500.51</v>
+      </c>
+      <c r="D133">
+        <f>(1.62/A133)*1000</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>500</v>
+      </c>
+      <c r="B136">
+        <v>29.43</v>
+      </c>
+      <c r="C136">
+        <v>41401974.93</v>
+      </c>
+      <c r="D136">
+        <v>18918.97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1000</v>
+      </c>
+      <c r="B137">
+        <v>54.17</v>
+      </c>
+      <c r="C137">
+        <v>127111944.84</v>
+      </c>
+      <c r="D137">
+        <v>49980.34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1500</v>
+      </c>
+      <c r="B138">
+        <v>79.75</v>
+      </c>
+      <c r="C138">
+        <v>171537209.33000001</v>
+      </c>
+      <c r="D138">
+        <v>97211.16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2000</v>
+      </c>
+      <c r="B139">
+        <v>96.02</v>
+      </c>
+      <c r="C139">
+        <v>275487761.81</v>
+      </c>
+      <c r="D139">
+        <v>133744.54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>500</v>
+      </c>
+      <c r="B149">
+        <f>(0.02/A149)*1000</f>
+        <v>0.04</v>
+      </c>
+      <c r="C149">
+        <f>(4943.09/A149)*1000</f>
+        <v>9886.18</v>
+      </c>
+      <c r="D149">
+        <f>(8.49/A149)*1000</f>
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1000</v>
+      </c>
+      <c r="B150">
+        <f>(0.08/A150)*1000</f>
+        <v>0.08</v>
+      </c>
+      <c r="C150">
+        <f>(21556.8/A150)*1000</f>
+        <v>21556.799999999999</v>
+      </c>
+      <c r="D150">
+        <f>(21.4/A150)*1000</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1500</v>
+      </c>
+      <c r="B151">
+        <f>(0.1/A151)*1000</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C151">
+        <f>(49557.82/A151)*1000</f>
+        <v>33038.546666666669</v>
+      </c>
+      <c r="D151">
+        <f>(40.22/A151)*1000</f>
+        <v>26.813333333333333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2000</v>
+      </c>
+      <c r="B152">
+        <f>(0.12/A152)*1000</f>
+        <v>0.06</v>
+      </c>
+      <c r="C152">
+        <f>(149557.9/A152)*1000</f>
+        <v>74778.95</v>
+      </c>
+      <c r="D152">
+        <f>(78.08/A152)*1000</f>
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>500</v>
+      </c>
+      <c r="B155">
+        <f>385.36/A155</f>
+        <v>0.77072000000000007</v>
+      </c>
+      <c r="C155">
+        <f>490744652.36/A155</f>
+        <v>981489.30472000001</v>
+      </c>
+      <c r="D155">
+        <f>224249.77/A155</f>
+        <v>448.49953999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1000</v>
+      </c>
+      <c r="B156">
+        <f>607.59/A156</f>
+        <v>0.60759000000000007</v>
+      </c>
+      <c r="C156">
+        <f>1828040114.4/A156</f>
+        <v>1828040.1144000001</v>
+      </c>
+      <c r="D156">
+        <f>718784.27/A156</f>
+        <v>718.78426999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1500</v>
+      </c>
+      <c r="B157">
+        <f>976.4/A157</f>
+        <v>0.65093333333333336</v>
+      </c>
+      <c r="C157">
+        <f>2892950748.18/A157</f>
+        <v>1928633.8321199999</v>
+      </c>
+      <c r="D157">
+        <f>1639452.45/A157</f>
+        <v>1092.9683</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2000</v>
+      </c>
+      <c r="B158">
+        <f>1243.78/A158</f>
+        <v>0.62188999999999994</v>
+      </c>
+      <c r="C158">
+        <f>5234450467.34/A158</f>
+        <v>2617225.23367</v>
+      </c>
+      <c r="D158">
+        <f>2541235.1/A158</f>
+        <v>1270.6175499999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="K48:N48"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:N2"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>